--- a/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,125 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>26.55797626141328</v>
+      </c>
+      <c r="C2">
+        <v>20.1524840242659</v>
+      </c>
+      <c r="D2">
+        <v>7.442661787100128</v>
+      </c>
+      <c r="E2">
+        <v>30.84793320275986</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.000637247256107</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>64.27880084203306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>24.41604237747153</v>
+      </c>
+      <c r="C3">
+        <v>18.50058756410203</v>
+      </c>
+      <c r="D3">
+        <v>6.866630364714081</v>
+      </c>
+      <c r="E3">
+        <v>28.3286133568335</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.022801925352718</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>59.78689761399851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>23.06588420982526</v>
+      </c>
+      <c r="C4">
+        <v>17.46374319651211</v>
+      </c>
+      <c r="D4">
+        <v>6.501548463338937</v>
+      </c>
+      <c r="E4">
+        <v>26.74901511654408</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.036294588879391</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>56.98023958708144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>22.50567484852801</v>
+      </c>
+      <c r="C5">
+        <v>17.03443114116223</v>
+      </c>
+      <c r="D5">
+        <v>6.349629557404798</v>
+      </c>
+      <c r="E5">
+        <v>26.09529447465535</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.041785092355616</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>55.82251400989824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>22.41201697339571</v>
+      </c>
+      <c r="C6">
+        <v>16.96270535737388</v>
+      </c>
+      <c r="D6">
+        <v>6.324206297677105</v>
+      </c>
+      <c r="E6">
+        <v>25.98609330658255</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.042696863996825</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>55.62938898060549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>23.05837098670115</v>
+      </c>
+      <c r="C7">
+        <v>17.45798215968397</v>
+      </c>
+      <c r="D7">
+        <v>6.499512701269973</v>
+      </c>
+      <c r="E7">
+        <v>26.74024151171529</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.036368642115816</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>56.96468465097991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>25.8258966223706</v>
+      </c>
+      <c r="C8">
+        <v>19.58685489674461</v>
+      </c>
+      <c r="D8">
+        <v>7.246226949117848</v>
+      </c>
+      <c r="E8">
+        <v>29.98486702968801</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.008318090657127</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>62.73882411229656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>31.04632744900561</v>
+      </c>
+      <c r="C9">
+        <v>23.64759977084212</v>
+      </c>
+      <c r="D9">
+        <v>8.636158527239647</v>
+      </c>
+      <c r="E9">
+        <v>36.19408178347513</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1.951128512704132</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>73.79517859240487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>34.89575879747608</v>
+      </c>
+      <c r="C10">
+        <v>26.68983812476407</v>
+      </c>
+      <c r="D10">
+        <v>9.64292016600564</v>
+      </c>
+      <c r="E10">
+        <v>40.87529747310073</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.905302035720535</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>82.17689333817445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>36.70154915323708</v>
+      </c>
+      <c r="C11">
+        <v>28.13401253331828</v>
+      </c>
+      <c r="D11">
+        <v>10.10890874415139</v>
+      </c>
+      <c r="E11">
+        <v>43.11146862436193</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.882712933999692</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>86.16546500385068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>37.40033889366981</v>
+      </c>
+      <c r="C12">
+        <v>28.69612920736824</v>
+      </c>
+      <c r="D12">
+        <v>10.288028307291</v>
+      </c>
+      <c r="E12">
+        <v>43.98503864998534</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.873781964856267</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>87.70589557730186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>37.2490213416705</v>
+      </c>
+      <c r="C13">
+        <v>28.57424628399923</v>
+      </c>
+      <c r="D13">
+        <v>10.2493009170641</v>
+      </c>
+      <c r="E13">
+        <v>43.79545604779256</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.875724922062751</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>87.3724900510383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>36.75868472495841</v>
+      </c>
+      <c r="C14">
+        <v>28.17990263987635</v>
+      </c>
+      <c r="D14">
+        <v>10.12358032632803</v>
+      </c>
+      <c r="E14">
+        <v>43.18271271908139</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.881986694790484</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>86.29148646171208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>36.46056313544683</v>
+      </c>
+      <c r="C15">
+        <v>27.94059360387616</v>
+      </c>
+      <c r="D15">
+        <v>10.04697676375093</v>
+      </c>
+      <c r="E15">
+        <v>42.81132275572981</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.885768260667684</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>85.6338015246581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>34.77937818109739</v>
+      </c>
+      <c r="C16">
+        <v>26.59716127277067</v>
+      </c>
+      <c r="D16">
+        <v>9.61274111711764</v>
+      </c>
+      <c r="E16">
+        <v>40.7321537510562</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.906733774434864</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>81.9195054330058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>33.76610332949708</v>
+      </c>
+      <c r="C17">
+        <v>25.79219893421506</v>
+      </c>
+      <c r="D17">
+        <v>9.349272827419798</v>
+      </c>
+      <c r="E17">
+        <v>39.49044457907359</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1.919076760147199</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>79.67718164425293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>33.18787514662198</v>
+      </c>
+      <c r="C18">
+        <v>25.33435381185256</v>
+      </c>
+      <c r="D18">
+        <v>9.198367575032741</v>
+      </c>
+      <c r="E18">
+        <v>38.78536976349737</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1.92602214931724</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>78.39665358324352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>32.9927183792821</v>
+      </c>
+      <c r="C19">
+        <v>25.18006705249432</v>
+      </c>
+      <c r="D19">
+        <v>9.147347292409581</v>
+      </c>
+      <c r="E19">
+        <v>38.54794877570335</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1.928350231359933</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>77.96433729761279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>33.87345312096119</v>
+      </c>
+      <c r="C20">
+        <v>25.87731799240704</v>
+      </c>
+      <c r="D20">
+        <v>9.377245034083991</v>
+      </c>
+      <c r="E20">
+        <v>39.62161742954882</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1.917779491001053</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>79.91484691776937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>36.90222666856013</v>
+      </c>
+      <c r="C21">
+        <v>28.29524752440129</v>
+      </c>
+      <c r="D21">
+        <v>10.16041947619036</v>
+      </c>
+      <c r="E21">
+        <v>43.36184053418039</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.880159030264617</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>86.60803691019798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>38.97560696208672</v>
+      </c>
+      <c r="C22">
+        <v>29.9704719052829</v>
+      </c>
+      <c r="D22">
+        <v>10.68914923502326</v>
+      </c>
+      <c r="E22">
+        <v>45.97337323559626</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.853257163832442</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>91.17079152472868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>37.85692857054572</v>
+      </c>
+      <c r="C23">
+        <v>29.06445214328692</v>
+      </c>
+      <c r="D23">
+        <v>10.40468129621435</v>
+      </c>
+      <c r="E23">
+        <v>44.55853996948436</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.86788891246975</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>88.71134458247833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>33.82490731220658</v>
+      </c>
+      <c r="C24">
+        <v>25.83882072569803</v>
+      </c>
+      <c r="D24">
+        <v>9.364597137807177</v>
+      </c>
+      <c r="E24">
+        <v>39.56228753619144</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1.91836644745803</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>79.80737257692316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>29.64443323234519</v>
+      </c>
+      <c r="C25">
+        <v>22.55049657757454</v>
+      </c>
+      <c r="D25">
+        <v>8.265479497626064</v>
+      </c>
+      <c r="E25">
+        <v>34.51308452360807</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1.967041514204691</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>70.81205848725946</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.55797626141328</v>
+        <v>20.75284631678966</v>
       </c>
       <c r="C2">
-        <v>20.1524840242659</v>
+        <v>15.65245957975456</v>
       </c>
       <c r="D2">
-        <v>7.442661787100128</v>
+        <v>10.28585184643452</v>
       </c>
       <c r="E2">
-        <v>30.84793320275986</v>
+        <v>9.909514362516067</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.000637247256107</v>
+        <v>2.088835709007073</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14.11018259777307</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.132109675792129</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.25896729577606</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>64.27880084203306</v>
+        <v>17.86570278947838</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.41604237747153</v>
+        <v>19.36493865787449</v>
       </c>
       <c r="C3">
-        <v>18.50058756410203</v>
+        <v>14.599437721482</v>
       </c>
       <c r="D3">
-        <v>6.866630364714081</v>
+        <v>9.996772835034465</v>
       </c>
       <c r="E3">
-        <v>28.3286133568335</v>
+        <v>9.785427065627074</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.022801925352718</v>
+        <v>2.09574247575374</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.35702767498996</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.183718738806091</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.40610598373682</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>59.78689761399851</v>
+        <v>17.71583116645723</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.06588420982526</v>
+        <v>18.46328608607785</v>
       </c>
       <c r="C4">
-        <v>17.46374319651211</v>
+        <v>13.91562779447037</v>
       </c>
       <c r="D4">
-        <v>6.501548463338937</v>
+        <v>9.822771623208226</v>
       </c>
       <c r="E4">
-        <v>26.74901511654408</v>
+        <v>9.715988259093601</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.036294588879391</v>
+        <v>2.100102625585771</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.52553194335481</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.217095353915802</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.86431683607615</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>56.98023958708144</v>
+        <v>17.64579385604856</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.50567484852801</v>
+        <v>18.08333503834509</v>
       </c>
       <c r="C5">
-        <v>17.03443114116223</v>
+        <v>13.62753438485209</v>
       </c>
       <c r="D5">
-        <v>6.349629557404798</v>
+        <v>9.752815490173896</v>
       </c>
       <c r="E5">
-        <v>26.09529447465535</v>
+        <v>9.68936233229021</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.041785092355616</v>
+        <v>2.101910483473663</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.59820023822139</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.231117173043041</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.6391967151953</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>55.82251400989824</v>
+        <v>17.62256654264256</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.41201697339571</v>
+        <v>18.01948600786738</v>
       </c>
       <c r="C6">
-        <v>16.96270535737388</v>
+        <v>13.57912488620815</v>
       </c>
       <c r="D6">
-        <v>6.324206297677105</v>
+        <v>9.741258883732757</v>
       </c>
       <c r="E6">
-        <v>25.98609330658255</v>
+        <v>9.685041190770653</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.042696863996825</v>
+        <v>2.102212582428569</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14.61050131505214</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.233470780496477</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.60156115859462</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>55.62938898060549</v>
+        <v>17.61902407623742</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.05837098670115</v>
+        <v>18.45821273063371</v>
       </c>
       <c r="C7">
-        <v>17.45798215968397</v>
+        <v>13.91178075763893</v>
       </c>
       <c r="D7">
-        <v>6.499512701269973</v>
+        <v>9.82182422437603</v>
       </c>
       <c r="E7">
-        <v>26.74024151171529</v>
+        <v>9.715622444693564</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.036368642115816</v>
+        <v>2.100126879880576</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.52649609632829</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.217282759049911</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.86129801933907</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>56.96468465097991</v>
+        <v>17.64545938283494</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.8258966223706</v>
+        <v>20.28451372253789</v>
       </c>
       <c r="C8">
-        <v>19.58685489674461</v>
+        <v>15.2970666496785</v>
       </c>
       <c r="D8">
-        <v>7.246226949117848</v>
+        <v>10.18549468716327</v>
       </c>
       <c r="E8">
-        <v>29.98486702968801</v>
+        <v>9.865312738316426</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.008318090657127</v>
+        <v>2.091193035947146</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.19161606067371</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.149551476051458</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.96878269490238</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>62.73882411229656</v>
+        <v>17.80933888386359</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.04632744900561</v>
+        <v>23.47722224004297</v>
       </c>
       <c r="C9">
-        <v>23.64759977084212</v>
+        <v>17.7213090975081</v>
       </c>
       <c r="D9">
-        <v>8.636158527239647</v>
+        <v>10.92338600202176</v>
       </c>
       <c r="E9">
-        <v>36.19408178347513</v>
+        <v>10.21348020898226</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.951128512704132</v>
+        <v>2.074570349112161</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.68219169782107</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.030336205599762</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.98917342720271</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>73.79517859240487</v>
+        <v>18.31406092888977</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.89575879747608</v>
+        <v>25.59168411035023</v>
       </c>
       <c r="C10">
-        <v>26.68983812476407</v>
+        <v>19.32899723585543</v>
       </c>
       <c r="D10">
-        <v>9.64292016600564</v>
+        <v>11.47700511678379</v>
       </c>
       <c r="E10">
-        <v>40.87529747310073</v>
+        <v>10.50389686393279</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.905302035720535</v>
+        <v>2.062828351881697</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.41739759708665</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.951383046156431</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>19.42637126561097</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>82.17689333817445</v>
+        <v>18.80785484608579</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.70154915323708</v>
+        <v>26.50473805496133</v>
       </c>
       <c r="C11">
-        <v>28.13401253331828</v>
+        <v>20.02384251557332</v>
       </c>
       <c r="D11">
-        <v>10.10890874415139</v>
+        <v>11.73075045878847</v>
       </c>
       <c r="E11">
-        <v>43.11146862436193</v>
+        <v>10.64379157137961</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.882712933999692</v>
+        <v>2.057570441517856</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.32557424640209</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.917432995858925</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>20.13131555816194</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>86.16546500385068</v>
+        <v>19.06131939264211</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.40033889366981</v>
+        <v>26.84358276259239</v>
       </c>
       <c r="C12">
-        <v>28.69612920736824</v>
+        <v>20.28181107652397</v>
       </c>
       <c r="D12">
-        <v>10.288028307291</v>
+        <v>11.82707236714292</v>
       </c>
       <c r="E12">
-        <v>43.98503864998534</v>
+        <v>10.6979060902147</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.873781964856267</v>
+        <v>2.055589763717184</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.29536502873637</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.904869151628265</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>20.39315624169917</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>87.70589557730186</v>
+        <v>19.16160394120483</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.2490213416705</v>
+        <v>26.77091191559556</v>
       </c>
       <c r="C13">
-        <v>28.57424628399923</v>
+        <v>20.22648060106015</v>
       </c>
       <c r="D13">
-        <v>10.2493009170641</v>
+        <v>11.80631781990436</v>
       </c>
       <c r="E13">
-        <v>43.79545604779256</v>
+        <v>10.68620054283106</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.875724922062751</v>
+        <v>2.056015904190223</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.30166080362594</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.907561832284835</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20.33698961366618</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>87.3724900510383</v>
+        <v>19.13981208651187</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.75868472495841</v>
+        <v>26.53275281404553</v>
       </c>
       <c r="C14">
-        <v>28.17990263987635</v>
+        <v>20.04516848146173</v>
       </c>
       <c r="D14">
-        <v>10.12358032632803</v>
+        <v>11.7386704155686</v>
       </c>
       <c r="E14">
-        <v>43.18271271908139</v>
+        <v>10.64822064750512</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.881986694790484</v>
+        <v>2.057407291866621</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.3229948227789</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.916393442728054</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>20.15295909336588</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>86.29148646171208</v>
+        <v>19.06948275696995</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.46056313544683</v>
+        <v>26.38597717055201</v>
       </c>
       <c r="C15">
-        <v>27.94059360387616</v>
+        <v>19.93344123859579</v>
       </c>
       <c r="D15">
-        <v>10.04697676375093</v>
+        <v>11.69726392728128</v>
       </c>
       <c r="E15">
-        <v>42.81132275572981</v>
+        <v>10.62510588145922</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.885768260667684</v>
+        <v>2.058260857484852</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.33667040263136</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.921841434005001</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>20.03957315642339</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>85.6338015246581</v>
+        <v>19.02696889324529</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.77937818109739</v>
+        <v>25.5310408212838</v>
       </c>
       <c r="C16">
-        <v>26.59716127277067</v>
+        <v>19.2828609235313</v>
       </c>
       <c r="D16">
-        <v>9.61274111711764</v>
+        <v>11.46045691013212</v>
       </c>
       <c r="E16">
-        <v>40.7321537510562</v>
+        <v>10.49491272539099</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.906733774434864</v>
+        <v>2.063173513578341</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.42401195887801</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.95364211230277</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.37958133750882</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>81.9195054330058</v>
+        <v>18.79188416784242</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.76610332949708</v>
+        <v>24.99413734612109</v>
       </c>
       <c r="C17">
-        <v>25.79219893421506</v>
+        <v>18.87446776060969</v>
       </c>
       <c r="D17">
-        <v>9.349272827419798</v>
+        <v>11.31563905241858</v>
       </c>
       <c r="E17">
-        <v>39.49044457907359</v>
+        <v>10.41705080714901</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.919076760147199</v>
+        <v>2.066207553306827</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.48523338943903</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.973660753426991</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.97934420987363</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>79.67718164425293</v>
+        <v>18.65516703682414</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.18787514662198</v>
+        <v>24.68072190297449</v>
       </c>
       <c r="C18">
-        <v>25.33435381185256</v>
+        <v>18.63612926479361</v>
       </c>
       <c r="D18">
-        <v>9.198367575032741</v>
+        <v>11.23252431825443</v>
       </c>
       <c r="E18">
-        <v>38.78536976349737</v>
+        <v>10.37299798275766</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.92602214931724</v>
+        <v>2.067960626159284</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.52311277160356</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.985359356278502</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>18.77337334952405</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>78.39665358324352</v>
+        <v>18.57923638605263</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.9927183792821</v>
+        <v>24.57381098431954</v>
       </c>
       <c r="C19">
-        <v>25.18006705249432</v>
+        <v>18.55483807422492</v>
       </c>
       <c r="D19">
-        <v>9.147347292409581</v>
+        <v>11.20441550140508</v>
       </c>
       <c r="E19">
-        <v>38.54794877570335</v>
+        <v>10.35820745717433</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.928350231359933</v>
+        <v>2.068555603657978</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.53638299632181</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.989351705504769</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>18.70327349898693</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>77.96433729761279</v>
+        <v>18.55398731110619</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.87345312096119</v>
+        <v>25.05176721583077</v>
       </c>
       <c r="C20">
-        <v>25.87731799240704</v>
+        <v>18.91829743206869</v>
       </c>
       <c r="D20">
-        <v>9.377245034083991</v>
+        <v>11.3310367816702</v>
       </c>
       <c r="E20">
-        <v>39.62161742954882</v>
+        <v>10.42526351311334</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.917779491001053</v>
+        <v>2.065883760810529</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13.47843717371231</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.971510584255246</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>19.01729260662802</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>79.91484691776937</v>
+        <v>18.66943964514194</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.90222666856013</v>
+        <v>26.60289249728682</v>
       </c>
       <c r="C21">
-        <v>28.29524752440129</v>
+        <v>20.09856334923879</v>
       </c>
       <c r="D21">
-        <v>10.16041947619036</v>
+        <v>11.75853400480591</v>
       </c>
       <c r="E21">
-        <v>43.36184053418039</v>
+        <v>10.65934516980291</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.880159030264617</v>
+        <v>2.05699833969138</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.31660098638611</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.913791368259381</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>20.20715107599619</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>86.60803691019798</v>
+        <v>19.09002219709191</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.97560696208672</v>
+        <v>27.57642851484843</v>
       </c>
       <c r="C22">
-        <v>29.9704719052829</v>
+        <v>20.83994057804992</v>
       </c>
       <c r="D22">
-        <v>10.68914923502326</v>
+        <v>12.03928218017066</v>
       </c>
       <c r="E22">
-        <v>45.97337323559626</v>
+        <v>10.81898339058364</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.853257163832442</v>
+        <v>2.051250830642987</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.2376520022265</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.877777790463617</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>20.95989344927907</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>91.17079152472868</v>
+        <v>19.39004593555439</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.85692857054572</v>
+        <v>27.06047480194039</v>
       </c>
       <c r="C23">
-        <v>29.06445214328692</v>
+        <v>20.44696533798804</v>
       </c>
       <c r="D23">
-        <v>10.40468129621435</v>
+        <v>11.88932779728383</v>
       </c>
       <c r="E23">
-        <v>44.55853996948436</v>
+        <v>10.73316558798314</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.86788891246975</v>
+        <v>2.054313508873629</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.27717963715226</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.896838973032874</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>20.5608246829869</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>88.71134458247833</v>
+        <v>19.22756680041804</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.82490731220658</v>
+        <v>25.02572753190399</v>
       </c>
       <c r="C24">
-        <v>25.83882072569803</v>
+        <v>18.89849309535597</v>
       </c>
       <c r="D24">
-        <v>9.364597137807177</v>
+        <v>11.32407501979221</v>
       </c>
       <c r="E24">
-        <v>39.56228753619144</v>
+        <v>10.42154833555194</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.91836644745803</v>
+        <v>2.066030119981304</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>13.48150142119973</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.972482085821817</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>19.00014300825771</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>79.80737257692316</v>
+        <v>18.66297869487299</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.64443323234519</v>
+        <v>22.65454779681894</v>
       </c>
       <c r="C25">
-        <v>22.55049657757454</v>
+        <v>17.0963006338699</v>
       </c>
       <c r="D25">
-        <v>8.265479497626064</v>
+        <v>10.72151398012168</v>
       </c>
       <c r="E25">
-        <v>34.51308452360807</v>
+        <v>10.11330076504218</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.967041514204691</v>
+        <v>2.078978737216951</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.8023181824292</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.061098701237012</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.45970338235832</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>70.81205848725946</v>
+        <v>18.15668194543335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.75284631678966</v>
+        <v>14.77831899733424</v>
       </c>
       <c r="C2">
-        <v>15.65245957975456</v>
+        <v>10.27232470012285</v>
       </c>
       <c r="D2">
-        <v>10.28585184643452</v>
+        <v>14.41935727154581</v>
       </c>
       <c r="E2">
-        <v>9.909514362516067</v>
+        <v>15.4530111398583</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.088835709007073</v>
+        <v>3.666323054928875</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.11018259777307</v>
+        <v>23.26657578650508</v>
       </c>
       <c r="J2">
-        <v>5.132109675792129</v>
+        <v>9.104455859180565</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.25896729577606</v>
+        <v>18.70483167175254</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.86570278947838</v>
+        <v>26.66272790411299</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.36493865787449</v>
+        <v>14.24227262584655</v>
       </c>
       <c r="C3">
-        <v>14.599437721482</v>
+        <v>9.8186725096886</v>
       </c>
       <c r="D3">
-        <v>9.996772835034465</v>
+        <v>14.41194776216358</v>
       </c>
       <c r="E3">
-        <v>9.785427065627074</v>
+        <v>15.48028740873552</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.09574247575374</v>
+        <v>3.668886759654261</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.35702767498996</v>
+        <v>23.40617755527639</v>
       </c>
       <c r="J3">
-        <v>5.183718738806091</v>
+        <v>9.128436658274119</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.40610598373682</v>
+        <v>18.53885790612103</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.71583116645723</v>
+        <v>26.75491709937675</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.46328608607785</v>
+        <v>13.90408216068654</v>
       </c>
       <c r="C4">
-        <v>13.91562779447037</v>
+        <v>9.52999519333731</v>
       </c>
       <c r="D4">
-        <v>9.822771623208226</v>
+        <v>14.41046869939988</v>
       </c>
       <c r="E4">
-        <v>9.715988259093601</v>
+        <v>15.49998531816587</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.100102625585771</v>
+        <v>3.670543684031637</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.52553194335481</v>
+        <v>23.49772831711715</v>
       </c>
       <c r="J4">
-        <v>5.217095353915802</v>
+        <v>9.14405141190778</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.86431683607615</v>
+        <v>18.4391115793822</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.64579385604856</v>
+        <v>26.81892833013275</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.08333503834509</v>
+        <v>13.76419235537879</v>
       </c>
       <c r="C5">
-        <v>13.62753438485209</v>
+        <v>9.4099659629385</v>
       </c>
       <c r="D5">
-        <v>9.752815490173896</v>
+        <v>14.4106391262835</v>
       </c>
       <c r="E5">
-        <v>9.68936233229021</v>
+        <v>15.50875319276621</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.101910483473663</v>
+        <v>3.671239784799373</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.59820023822139</v>
+        <v>23.53650048424958</v>
       </c>
       <c r="J5">
-        <v>5.231117173043041</v>
+        <v>9.150638921102138</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.6391967151953</v>
+        <v>18.39904415169284</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.62256654264256</v>
+        <v>26.84686786602606</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.01948600786738</v>
+        <v>13.74084479392143</v>
       </c>
       <c r="C6">
-        <v>13.57912488620815</v>
+        <v>9.389895820726638</v>
       </c>
       <c r="D6">
-        <v>9.741258883732757</v>
+        <v>14.41071414471945</v>
       </c>
       <c r="E6">
-        <v>9.685041190770653</v>
+        <v>15.51025380237388</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.102212582428569</v>
+        <v>3.671356635604667</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.61050131505214</v>
+        <v>23.54302694768378</v>
       </c>
       <c r="J6">
-        <v>5.233470780496477</v>
+        <v>9.151746336996499</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.60156115859462</v>
+        <v>18.39242705751563</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.61902407623742</v>
+        <v>26.85161896760209</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.45821273063371</v>
+        <v>13.90220367432801</v>
       </c>
       <c r="C7">
-        <v>13.91178075763893</v>
+        <v>9.528385894018539</v>
       </c>
       <c r="D7">
-        <v>9.82182422437603</v>
+        <v>14.41046786627479</v>
       </c>
       <c r="E7">
-        <v>9.715622444693564</v>
+        <v>15.50010056671898</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.100126879880576</v>
+        <v>3.670552987212295</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.52649609632829</v>
+        <v>23.49824528600789</v>
       </c>
       <c r="J7">
-        <v>5.217282759049911</v>
+        <v>9.144139344285032</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.86129801933907</v>
+        <v>18.43856882042701</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.64545938283494</v>
+        <v>26.8192976348291</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.28451372253789</v>
+        <v>14.59548507676061</v>
       </c>
       <c r="C8">
-        <v>15.2970666496785</v>
+        <v>10.11809621313642</v>
       </c>
       <c r="D8">
-        <v>10.18549468716327</v>
+        <v>14.41616599109942</v>
       </c>
       <c r="E8">
-        <v>9.865312738316426</v>
+        <v>15.46180311104399</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.091193035947146</v>
+        <v>3.667189877577528</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.19161606067371</v>
+        <v>23.31349783878481</v>
       </c>
       <c r="J8">
-        <v>5.149551476051458</v>
+        <v>9.11253990365525</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.96878269490238</v>
+        <v>18.64717721826413</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.80933888386359</v>
+        <v>26.69297273842657</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.47722224004297</v>
+        <v>15.87526870517945</v>
       </c>
       <c r="C9">
-        <v>17.7213090975081</v>
+        <v>11.18825888595637</v>
       </c>
       <c r="D9">
-        <v>10.92338600202176</v>
+        <v>14.45163653642799</v>
       </c>
       <c r="E9">
-        <v>10.21348020898226</v>
+        <v>15.41015160644133</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.074570349112161</v>
+        <v>3.661248606819189</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.68219169782107</v>
+        <v>22.99762742684996</v>
       </c>
       <c r="J9">
-        <v>5.030336205599762</v>
+        <v>9.057617909073743</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.98917342720271</v>
+        <v>19.07177730983194</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.31406092888977</v>
+        <v>26.50436525605669</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.59168411035023</v>
+        <v>16.75771414163906</v>
       </c>
       <c r="C10">
-        <v>19.32899723585543</v>
+        <v>11.91538398810733</v>
       </c>
       <c r="D10">
-        <v>11.47700511678379</v>
+        <v>14.49239339116539</v>
       </c>
       <c r="E10">
-        <v>10.50389686393279</v>
+        <v>15.38654860440219</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.062828351881697</v>
+        <v>3.657277636536972</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.41739759708665</v>
+        <v>22.79402786651801</v>
       </c>
       <c r="J10">
-        <v>4.951383046156431</v>
+        <v>9.021532157370729</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.42637126561097</v>
+        <v>19.39095430941829</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.80785484608579</v>
+        <v>26.40228782964145</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.50473805496133</v>
+        <v>17.14502391224839</v>
       </c>
       <c r="C11">
-        <v>20.02384251557332</v>
+        <v>12.23227686943509</v>
       </c>
       <c r="D11">
-        <v>11.73075045878847</v>
+        <v>14.51409150546555</v>
       </c>
       <c r="E11">
-        <v>10.64379157137961</v>
+        <v>15.37893347526451</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.057570441517856</v>
+        <v>3.655555756218159</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.32557424640209</v>
+        <v>22.70762682053729</v>
       </c>
       <c r="J11">
-        <v>4.917432995858925</v>
+        <v>9.006035917442155</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.13131555816194</v>
+        <v>19.53724032573222</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.06131939264211</v>
+        <v>26.36386397536291</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.84358276259239</v>
+        <v>17.28954732781705</v>
       </c>
       <c r="C12">
-        <v>20.28181107652397</v>
+        <v>12.35020986610091</v>
       </c>
       <c r="D12">
-        <v>11.82707236714292</v>
+        <v>14.52275831597074</v>
       </c>
       <c r="E12">
-        <v>10.6979060902147</v>
+        <v>15.37649906261644</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.055589763717184</v>
+        <v>3.654915808204836</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.29536502873637</v>
+        <v>22.67580670935577</v>
       </c>
       <c r="J12">
-        <v>4.904869151628265</v>
+        <v>9.000299645543729</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.39315624169917</v>
+        <v>19.59275102486056</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.16160394120483</v>
+        <v>26.35047265698749</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.77091191559556</v>
+        <v>17.25851853828891</v>
       </c>
       <c r="C13">
-        <v>20.22648060106015</v>
+        <v>12.32490385277361</v>
       </c>
       <c r="D13">
-        <v>11.80631781990436</v>
+        <v>14.52087180681572</v>
       </c>
       <c r="E13">
-        <v>10.68620054283106</v>
+        <v>15.37700337208915</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.056015904190223</v>
+        <v>3.655053095756136</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.30166080362594</v>
+        <v>22.68261973112245</v>
       </c>
       <c r="J13">
-        <v>4.907561832284835</v>
+        <v>9.001529197732431</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.33698961366618</v>
+        <v>19.58079133044552</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.13981208651187</v>
+        <v>26.35330506693696</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.53275281404553</v>
+        <v>17.15695746761226</v>
       </c>
       <c r="C14">
-        <v>20.04516848146173</v>
+        <v>12.24202109171323</v>
       </c>
       <c r="D14">
-        <v>11.7386704155686</v>
+        <v>14.51479553020621</v>
       </c>
       <c r="E14">
-        <v>10.64822064750512</v>
+        <v>15.37872418933589</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.057407291866621</v>
+        <v>3.655502865365904</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.3229948227789</v>
+        <v>22.70499093818576</v>
       </c>
       <c r="J14">
-        <v>4.916393442728054</v>
+        <v>9.005561351247875</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.15295909336588</v>
+        <v>19.54180514934787</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.06948275696995</v>
+        <v>26.36273899835894</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.38597717055201</v>
+        <v>17.09446629963943</v>
       </c>
       <c r="C15">
-        <v>19.93344123859579</v>
+        <v>12.19098183816156</v>
       </c>
       <c r="D15">
-        <v>11.69726392728128</v>
+        <v>14.51113214264077</v>
       </c>
       <c r="E15">
-        <v>10.62510588145922</v>
+        <v>15.37983675479646</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.058260857484852</v>
+        <v>3.655779934876685</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.33667040263136</v>
+        <v>22.71881102834969</v>
       </c>
       <c r="J15">
-        <v>4.921841434005001</v>
+        <v>9.008048317008885</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.03957315642339</v>
+        <v>19.51793878269632</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.02696889324529</v>
+        <v>26.36866868158793</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.5310408212838</v>
+        <v>16.73210850716052</v>
       </c>
       <c r="C16">
-        <v>19.2828609235313</v>
+        <v>11.89438860780893</v>
       </c>
       <c r="D16">
-        <v>11.46045691013212</v>
+        <v>14.491038589218</v>
       </c>
       <c r="E16">
-        <v>10.49491272539099</v>
+        <v>15.38710912602567</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.063173513578341</v>
+        <v>3.657391860922509</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.42401195887801</v>
+        <v>22.79979982991781</v>
       </c>
       <c r="J16">
-        <v>4.95364211230277</v>
+        <v>9.022563339821966</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.37958133750882</v>
+        <v>19.38141257292449</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.79188416784242</v>
+        <v>26.40496073364448</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.99413734612109</v>
+        <v>16.5061130247714</v>
       </c>
       <c r="C17">
-        <v>18.87446776060969</v>
+        <v>11.70882857471678</v>
       </c>
       <c r="D17">
-        <v>11.31563905241858</v>
+        <v>14.47951799818365</v>
       </c>
       <c r="E17">
-        <v>10.41705080714901</v>
+        <v>15.39237040125446</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.066207553306827</v>
+        <v>3.65840233000163</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.48523338943903</v>
+        <v>22.85107909101015</v>
       </c>
       <c r="J17">
-        <v>4.973660753426991</v>
+        <v>9.031703028674976</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.97934420987363</v>
+        <v>19.29790797573687</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.65516703682414</v>
+        <v>26.42928175951083</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.68072190297449</v>
+        <v>16.3748031584834</v>
       </c>
       <c r="C18">
-        <v>18.63612926479361</v>
+        <v>11.600796370886</v>
       </c>
       <c r="D18">
-        <v>11.23252431825443</v>
+        <v>14.47318913073673</v>
       </c>
       <c r="E18">
-        <v>10.37299798275766</v>
+        <v>15.39569039589247</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.067960626159284</v>
+        <v>3.658991485695879</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.52311277160356</v>
+        <v>22.8811585281691</v>
       </c>
       <c r="J18">
-        <v>4.985359356278502</v>
+        <v>9.037046491982242</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.77337334952405</v>
+        <v>19.24998349023076</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.57923638605263</v>
+        <v>26.44402428258672</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.57381098431954</v>
+        <v>16.33012028397006</v>
       </c>
       <c r="C19">
-        <v>18.55483807422492</v>
+        <v>11.56399710912753</v>
       </c>
       <c r="D19">
-        <v>11.20441550140508</v>
+        <v>14.47109748551905</v>
       </c>
       <c r="E19">
-        <v>10.35820745717433</v>
+        <v>15.39686494470751</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.068555603657978</v>
+        <v>3.659192332927241</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.53638299632181</v>
+        <v>22.89144325609199</v>
       </c>
       <c r="J19">
-        <v>4.989351705504769</v>
+        <v>9.038870574725388</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.70327349898693</v>
+        <v>19.2337764094167</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.55398731110619</v>
+        <v>26.44914508120588</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.05176721583077</v>
+        <v>16.5303084387481</v>
       </c>
       <c r="C20">
-        <v>18.91829743206869</v>
+        <v>11.72871716599377</v>
       </c>
       <c r="D20">
-        <v>11.3310367816702</v>
+        <v>14.48071362393543</v>
       </c>
       <c r="E20">
-        <v>10.42526351311334</v>
+        <v>15.39177991434877</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.065883760810529</v>
+        <v>3.658293940423275</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.47843717371231</v>
+        <v>22.84555975588045</v>
       </c>
       <c r="J20">
-        <v>4.971510584255246</v>
+        <v>9.03072113776453</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.01729260662802</v>
+        <v>19.30678660113349</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.66943964514194</v>
+        <v>26.42661468699804</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.60289249728682</v>
+        <v>17.18684738092483</v>
       </c>
       <c r="C21">
-        <v>20.09856334923879</v>
+        <v>12.26642239084357</v>
       </c>
       <c r="D21">
-        <v>11.75853400480591</v>
+        <v>14.5165680946296</v>
       </c>
       <c r="E21">
-        <v>10.65934516980291</v>
+        <v>15.37820654874032</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.05699833969138</v>
+        <v>3.655370429508118</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.31660098638611</v>
+        <v>22.69839556564621</v>
       </c>
       <c r="J21">
-        <v>4.913791368259381</v>
+        <v>9.004373435543602</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.20715107599619</v>
+        <v>19.55325353465043</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.09002219709191</v>
+        <v>26.35993651744791</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.57642851484843</v>
+        <v>17.60340404121911</v>
       </c>
       <c r="C22">
-        <v>20.83994057804992</v>
+        <v>12.60576776407457</v>
       </c>
       <c r="D22">
-        <v>12.03928218017066</v>
+        <v>14.54262307633539</v>
       </c>
       <c r="E22">
-        <v>10.81898339058364</v>
+        <v>15.37195429422778</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.051250830642987</v>
+        <v>3.653530189995449</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.2376520022265</v>
+        <v>22.60745198588623</v>
       </c>
       <c r="J22">
-        <v>4.877777790463617</v>
+        <v>8.987921851134125</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.95989344927907</v>
+        <v>19.71498726165213</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.39004593555439</v>
+        <v>26.32311666705266</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.06047480194039</v>
+        <v>17.38225969365984</v>
       </c>
       <c r="C23">
-        <v>20.44696533798804</v>
+        <v>12.42577842744806</v>
       </c>
       <c r="D23">
-        <v>11.88932779728383</v>
+        <v>14.52847852697955</v>
       </c>
       <c r="E23">
-        <v>10.73316558798314</v>
+        <v>15.37505156346672</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.054313508873629</v>
+        <v>3.654505936265681</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.27717963715226</v>
+        <v>22.65550975633219</v>
       </c>
       <c r="J23">
-        <v>4.896838973032874</v>
+        <v>8.996632209451009</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.5608246829869</v>
+        <v>19.62862079500736</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.22756680041804</v>
+        <v>26.34214758024035</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.02572753190399</v>
+        <v>16.51937398821426</v>
       </c>
       <c r="C24">
-        <v>18.89849309535597</v>
+        <v>11.7197297372847</v>
       </c>
       <c r="D24">
-        <v>11.32407501979221</v>
+        <v>14.48017216399428</v>
       </c>
       <c r="E24">
-        <v>10.42154833555194</v>
+        <v>15.39204595392331</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.066030119981304</v>
+        <v>3.658342917730048</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.48150142119973</v>
+        <v>22.84805318381346</v>
       </c>
       <c r="J24">
-        <v>4.972482085821817</v>
+        <v>9.031164773581681</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.00014300825771</v>
+        <v>19.30277231156713</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.66297869487299</v>
+        <v>26.42781810343616</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.65454779681894</v>
+        <v>15.53861168123829</v>
       </c>
       <c r="C25">
-        <v>17.0963006338699</v>
+        <v>10.90872704941715</v>
       </c>
       <c r="D25">
-        <v>10.72151398012168</v>
+        <v>14.4394496557327</v>
       </c>
       <c r="E25">
-        <v>10.11330076504218</v>
+        <v>15.42160848061653</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.078978737216951</v>
+        <v>3.662786351216485</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.8023181824292</v>
+        <v>23.07809199045041</v>
       </c>
       <c r="J25">
-        <v>5.061098701237012</v>
+        <v>9.071724635518901</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.45970338235832</v>
+        <v>18.95547929350261</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.15668194543335</v>
+        <v>26.54901155172463</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.77831899733424</v>
+        <v>20.75284631678965</v>
       </c>
       <c r="C2">
-        <v>10.27232470012285</v>
+        <v>15.65245957975466</v>
       </c>
       <c r="D2">
-        <v>14.41935727154581</v>
+        <v>10.28585184643436</v>
       </c>
       <c r="E2">
-        <v>15.4530111398583</v>
+        <v>9.909514362515983</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.666323054928875</v>
+        <v>2.088835709006672</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.26657578650508</v>
+        <v>14.11018259777316</v>
       </c>
       <c r="J2">
-        <v>9.104455859180565</v>
+        <v>5.1321096757921</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.70483167175254</v>
+        <v>16.25896729577605</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.66272790411299</v>
+        <v>17.8657027894784</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.24227262584655</v>
+        <v>19.36493865787447</v>
       </c>
       <c r="C3">
-        <v>9.8186725096886</v>
+        <v>14.59943772148182</v>
       </c>
       <c r="D3">
-        <v>14.41194776216358</v>
+        <v>9.996772835034472</v>
       </c>
       <c r="E3">
-        <v>15.48028740873552</v>
+        <v>9.785427065627028</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.668886759654261</v>
+        <v>2.095742475753606</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.40617755527639</v>
+        <v>14.35702767499005</v>
       </c>
       <c r="J3">
-        <v>9.128436658274119</v>
+        <v>5.183718738806029</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.53885790612103</v>
+        <v>15.40610598373685</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.75491709937675</v>
+        <v>17.71583116645744</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.90408216068654</v>
+        <v>18.46328608607784</v>
       </c>
       <c r="C4">
-        <v>9.52999519333731</v>
+        <v>13.91562779447044</v>
       </c>
       <c r="D4">
-        <v>14.41046869939988</v>
+        <v>9.822771623208235</v>
       </c>
       <c r="E4">
-        <v>15.49998531816587</v>
+        <v>9.715988259093541</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.670543684031637</v>
+        <v>2.100102625585639</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.49772831711715</v>
+        <v>14.52553194335495</v>
       </c>
       <c r="J4">
-        <v>9.14405141190778</v>
+        <v>5.217095353915707</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.4391115793822</v>
+        <v>14.86431683607613</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.81892833013275</v>
+        <v>17.64579385604867</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.76419235537879</v>
+        <v>18.08333503834509</v>
       </c>
       <c r="C5">
-        <v>9.4099659629385</v>
+        <v>13.62753438485204</v>
       </c>
       <c r="D5">
-        <v>14.4106391262835</v>
+        <v>9.752815490173957</v>
       </c>
       <c r="E5">
-        <v>15.50875319276621</v>
+        <v>9.689362332290179</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.671239784799373</v>
+        <v>2.10191048347353</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.53650048424958</v>
+        <v>14.59820023822155</v>
       </c>
       <c r="J5">
-        <v>9.150638921102138</v>
+        <v>5.231117173042952</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.39904415169284</v>
+        <v>14.63919671519529</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.84686786602606</v>
+        <v>17.62256654264268</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.74084479392143</v>
+        <v>18.01948600786741</v>
       </c>
       <c r="C6">
-        <v>9.389895820726638</v>
+        <v>13.57912488620807</v>
       </c>
       <c r="D6">
-        <v>14.41071414471945</v>
+        <v>9.741258883732506</v>
       </c>
       <c r="E6">
-        <v>15.51025380237388</v>
+        <v>9.685041190770558</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.671356635604667</v>
+        <v>2.102212582428435</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.54302694768378</v>
+        <v>14.610501315052</v>
       </c>
       <c r="J6">
-        <v>9.151746336996499</v>
+        <v>5.233470780496542</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.39242705751563</v>
+        <v>14.60156115859459</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.85161896760209</v>
+        <v>17.61902407623732</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.90220367432801</v>
+        <v>18.4582127306337</v>
       </c>
       <c r="C7">
-        <v>9.528385894018539</v>
+        <v>13.91178075763886</v>
       </c>
       <c r="D7">
-        <v>14.41046786627479</v>
+        <v>9.82182422437603</v>
       </c>
       <c r="E7">
-        <v>15.50010056671898</v>
+        <v>9.715622444693567</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.670552987212295</v>
+        <v>2.100126879880577</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.49824528600789</v>
+        <v>14.52649609632845</v>
       </c>
       <c r="J7">
-        <v>9.144139344285032</v>
+        <v>5.217282759049908</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.43856882042701</v>
+        <v>14.8612980193391</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.8192976348291</v>
+        <v>17.64545938283511</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.59548507676061</v>
+        <v>20.28451372253793</v>
       </c>
       <c r="C8">
-        <v>10.11809621313642</v>
+        <v>15.2970666496786</v>
       </c>
       <c r="D8">
-        <v>14.41616599109942</v>
+        <v>10.18549468716311</v>
       </c>
       <c r="E8">
-        <v>15.46180311104399</v>
+        <v>9.865312738316371</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.667189877577528</v>
+        <v>2.091193035947279</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.31349783878481</v>
+        <v>14.1916160606735</v>
       </c>
       <c r="J8">
-        <v>9.11253990365525</v>
+        <v>5.149551476051459</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.64717721826413</v>
+        <v>15.96878269490234</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.69297273842657</v>
+        <v>17.80933888386336</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.87526870517945</v>
+        <v>23.47722224004293</v>
       </c>
       <c r="C9">
-        <v>11.18825888595637</v>
+        <v>17.7213090975081</v>
       </c>
       <c r="D9">
-        <v>14.45163653642799</v>
+        <v>10.92338600202177</v>
       </c>
       <c r="E9">
-        <v>15.41015160644133</v>
+        <v>10.21348020898227</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.661248606819189</v>
+        <v>2.074570349112159</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.99762742684996</v>
+        <v>13.6821916978211</v>
       </c>
       <c r="J9">
-        <v>9.057617909073743</v>
+        <v>5.030336205599795</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.07177730983194</v>
+        <v>17.98917342720272</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.50436525605669</v>
+        <v>18.31406092888983</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.75771414163906</v>
+        <v>25.59168411035025</v>
       </c>
       <c r="C10">
-        <v>11.91538398810733</v>
+        <v>19.32899723585543</v>
       </c>
       <c r="D10">
-        <v>14.49239339116539</v>
+        <v>11.47700511678386</v>
       </c>
       <c r="E10">
-        <v>15.38654860440219</v>
+        <v>10.50389686393283</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.657277636536972</v>
+        <v>2.06282835188183</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.79402786651801</v>
+        <v>13.41739759708669</v>
       </c>
       <c r="J10">
-        <v>9.021532157370729</v>
+        <v>4.951383046156399</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.39095430941829</v>
+        <v>19.42637126561096</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.40228782964145</v>
+        <v>18.8078548460858</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.14502391224839</v>
+        <v>26.50473805496134</v>
       </c>
       <c r="C11">
-        <v>12.23227686943509</v>
+        <v>20.02384251557322</v>
       </c>
       <c r="D11">
-        <v>14.51409150546555</v>
+        <v>11.73075045878852</v>
       </c>
       <c r="E11">
-        <v>15.37893347526451</v>
+        <v>10.64379157137962</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.655555756218159</v>
+        <v>2.057570441517854</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.70762682053729</v>
+        <v>13.325574246402</v>
       </c>
       <c r="J11">
-        <v>9.006035917442155</v>
+        <v>4.917432995858895</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.53724032573222</v>
+        <v>20.13131555816195</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.36386397536291</v>
+        <v>19.06131939264208</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.28954732781705</v>
+        <v>26.84358276259234</v>
       </c>
       <c r="C12">
-        <v>12.35020986610091</v>
+        <v>20.28181107652397</v>
       </c>
       <c r="D12">
-        <v>14.52275831597074</v>
+        <v>11.82707236714298</v>
       </c>
       <c r="E12">
-        <v>15.37649906261644</v>
+        <v>10.69790609021477</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.654915808204836</v>
+        <v>2.055589763717317</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.67580670935577</v>
+        <v>13.29536502873651</v>
       </c>
       <c r="J12">
-        <v>9.000299645543729</v>
+        <v>4.904869151628236</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.59275102486056</v>
+        <v>20.39315624169913</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.35047265698749</v>
+        <v>19.16160394120491</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.25851853828891</v>
+        <v>26.7709119155956</v>
       </c>
       <c r="C13">
-        <v>12.32490385277361</v>
+        <v>20.22648060106008</v>
       </c>
       <c r="D13">
-        <v>14.52087180681572</v>
+        <v>11.80631781990435</v>
       </c>
       <c r="E13">
-        <v>15.37700337208915</v>
+        <v>10.6862005428311</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.655053095756136</v>
+        <v>2.056015904189958</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.68261973112245</v>
+        <v>13.30166080362591</v>
       </c>
       <c r="J13">
-        <v>9.001529197732431</v>
+        <v>4.907561832284951</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.58079133044552</v>
+        <v>20.33698961366618</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.35330506693696</v>
+        <v>19.13981208651185</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.15695746761226</v>
+        <v>26.53275281404557</v>
       </c>
       <c r="C14">
-        <v>12.24202109171323</v>
+        <v>20.04516848146167</v>
       </c>
       <c r="D14">
-        <v>14.51479553020621</v>
+        <v>11.73867041556852</v>
       </c>
       <c r="E14">
-        <v>15.37872418933589</v>
+        <v>10.64822064750502</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.655502865365904</v>
+        <v>2.057407291866488</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.70499093818576</v>
+        <v>13.32299482277886</v>
       </c>
       <c r="J14">
-        <v>9.005561351247875</v>
+        <v>4.916393442727963</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.54180514934787</v>
+        <v>20.15295909336589</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.36273899835894</v>
+        <v>19.06948275696995</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.09446629963943</v>
+        <v>26.38597717055199</v>
       </c>
       <c r="C15">
-        <v>12.19098183816156</v>
+        <v>19.9334412385957</v>
       </c>
       <c r="D15">
-        <v>14.51113214264077</v>
+        <v>11.69726392728122</v>
       </c>
       <c r="E15">
-        <v>15.37983675479646</v>
+        <v>10.62510588145922</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.655779934876685</v>
+        <v>2.058260857484584</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.71881102834969</v>
+        <v>13.33667040263139</v>
       </c>
       <c r="J15">
-        <v>9.008048317008885</v>
+        <v>4.921841434005032</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.51793878269632</v>
+        <v>20.03957315642337</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.36866868158793</v>
+        <v>19.02696889324533</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.73210850716052</v>
+        <v>25.53104082128384</v>
       </c>
       <c r="C16">
-        <v>11.89438860780893</v>
+        <v>19.28286092353124</v>
       </c>
       <c r="D16">
-        <v>14.491038589218</v>
+        <v>11.46045691013207</v>
       </c>
       <c r="E16">
-        <v>15.38710912602567</v>
+        <v>10.49491272539095</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.657391860922509</v>
+        <v>2.063173513578208</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.79979982991781</v>
+        <v>13.42401195887794</v>
       </c>
       <c r="J16">
-        <v>9.022563339821966</v>
+        <v>4.953642112302738</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.38141257292449</v>
+        <v>19.37958133750884</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.40496073364448</v>
+        <v>18.7918841678424</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.5061130247714</v>
+        <v>24.99413734612112</v>
       </c>
       <c r="C17">
-        <v>11.70882857471678</v>
+        <v>18.8744677606096</v>
       </c>
       <c r="D17">
-        <v>14.47951799818365</v>
+        <v>11.31563905241862</v>
       </c>
       <c r="E17">
-        <v>15.39237040125446</v>
+        <v>10.41705080714902</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.65840233000163</v>
+        <v>2.066207553306964</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.85107909101015</v>
+        <v>13.48523338943898</v>
       </c>
       <c r="J17">
-        <v>9.031703028674976</v>
+        <v>4.97366075342699</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.29790797573687</v>
+        <v>18.97934420987363</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.42928175951083</v>
+        <v>18.65516703682411</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.3748031584834</v>
+        <v>24.6807219029745</v>
       </c>
       <c r="C18">
-        <v>11.600796370886</v>
+        <v>18.63612926479364</v>
       </c>
       <c r="D18">
-        <v>14.47318913073673</v>
+        <v>11.23252431825435</v>
       </c>
       <c r="E18">
-        <v>15.39569039589247</v>
+        <v>10.37299798275761</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.658991485695879</v>
+        <v>2.06796062615915</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.8811585281691</v>
+        <v>13.5231127716035</v>
       </c>
       <c r="J18">
-        <v>9.037046491982242</v>
+        <v>4.985359356278531</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.24998349023076</v>
+        <v>18.77337334952404</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.44402428258672</v>
+        <v>18.5792363860526</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.33012028397006</v>
+        <v>24.57381098431959</v>
       </c>
       <c r="C19">
-        <v>11.56399710912753</v>
+        <v>18.55483807422483</v>
       </c>
       <c r="D19">
-        <v>14.47109748551905</v>
+        <v>11.20441550140504</v>
       </c>
       <c r="E19">
-        <v>15.39686494470751</v>
+        <v>10.3582074571742</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.659192332927241</v>
+        <v>2.068555603657711</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.89144325609199</v>
+        <v>13.5363829963218</v>
       </c>
       <c r="J19">
-        <v>9.038870574725388</v>
+        <v>4.989351705504737</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.2337764094167</v>
+        <v>18.70327349898691</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.44914508120588</v>
+        <v>18.55398731110622</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.5303084387481</v>
+        <v>25.05176721583084</v>
       </c>
       <c r="C20">
-        <v>11.72871716599377</v>
+        <v>18.91829743206867</v>
       </c>
       <c r="D20">
-        <v>14.48071362393543</v>
+        <v>11.33103678167024</v>
       </c>
       <c r="E20">
-        <v>15.39177991434877</v>
+        <v>10.42526351311338</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.658293940423275</v>
+        <v>2.065883760810528</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.84555975588045</v>
+        <v>13.47843717371221</v>
       </c>
       <c r="J20">
-        <v>9.03072113776453</v>
+        <v>4.971510584255276</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.30678660113349</v>
+        <v>19.01729260662803</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.42661468699804</v>
+        <v>18.66943964514188</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.18684738092483</v>
+        <v>26.60289249728681</v>
       </c>
       <c r="C21">
-        <v>12.26642239084357</v>
+        <v>20.09856334923879</v>
       </c>
       <c r="D21">
-        <v>14.5165680946296</v>
+        <v>11.75853400480593</v>
       </c>
       <c r="E21">
-        <v>15.37820654874032</v>
+        <v>10.65934516980301</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.655370429508118</v>
+        <v>2.05699833969138</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.69839556564621</v>
+        <v>13.31660098638621</v>
       </c>
       <c r="J21">
-        <v>9.004373435543602</v>
+        <v>4.913791368259383</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.55325353465043</v>
+        <v>20.20715107599612</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.35993651744791</v>
+        <v>19.090022197092</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.60340404121911</v>
+        <v>27.57642851484844</v>
       </c>
       <c r="C22">
-        <v>12.60576776407457</v>
+        <v>20.83994057804992</v>
       </c>
       <c r="D22">
-        <v>14.54262307633539</v>
+        <v>12.03928218017067</v>
       </c>
       <c r="E22">
-        <v>15.37195429422778</v>
+        <v>10.81898339058365</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.653530189995449</v>
+        <v>2.051250830642987</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.60745198588623</v>
+        <v>13.23765200222652</v>
       </c>
       <c r="J22">
-        <v>8.987921851134125</v>
+        <v>4.87777779046359</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.71498726165213</v>
+        <v>20.95989344927911</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.32311666705266</v>
+        <v>19.39004593555439</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.38225969365984</v>
+        <v>27.06047480194042</v>
       </c>
       <c r="C23">
-        <v>12.42577842744806</v>
+        <v>20.446965337988</v>
       </c>
       <c r="D23">
-        <v>14.52847852697955</v>
+        <v>11.88932779728384</v>
       </c>
       <c r="E23">
-        <v>15.37505156346672</v>
+        <v>10.73316558798313</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.654505936265681</v>
+        <v>2.054313508873763</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.65550975633219</v>
+        <v>13.2771796371524</v>
       </c>
       <c r="J23">
-        <v>8.996632209451009</v>
+        <v>4.896838973032837</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.62862079500736</v>
+        <v>20.5608246829869</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.34214758024035</v>
+        <v>19.22756680041813</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.51937398821426</v>
+        <v>25.02572753190392</v>
       </c>
       <c r="C24">
-        <v>11.7197297372847</v>
+        <v>18.89849309535595</v>
       </c>
       <c r="D24">
-        <v>14.48017216399428</v>
+        <v>11.32407501979242</v>
       </c>
       <c r="E24">
-        <v>15.39204595392331</v>
+        <v>10.42154833555206</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.658342917730048</v>
+        <v>2.066030119981171</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.84805318381346</v>
+        <v>13.48150142119983</v>
       </c>
       <c r="J24">
-        <v>9.031164773581681</v>
+        <v>4.97248208582185</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.30277231156713</v>
+        <v>19.00014300825771</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.42781810343616</v>
+        <v>18.66297869487311</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.53861168123829</v>
+        <v>22.65454779681888</v>
       </c>
       <c r="C25">
-        <v>10.90872704941715</v>
+        <v>17.0963006338698</v>
       </c>
       <c r="D25">
-        <v>14.4394496557327</v>
+        <v>10.7215139801217</v>
       </c>
       <c r="E25">
-        <v>15.42160848061653</v>
+        <v>10.11330076504215</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.662786351216485</v>
+        <v>2.078978737217086</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.07809199045041</v>
+        <v>13.80231818242936</v>
       </c>
       <c r="J25">
-        <v>9.071724635518901</v>
+        <v>5.061098701237015</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.95547929350261</v>
+        <v>17.45970338235832</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.54901155172463</v>
+        <v>18.1566819454335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.75284631678965</v>
+        <v>24.63405972141174</v>
       </c>
       <c r="C2">
-        <v>15.65245957975466</v>
+        <v>19.70981590978326</v>
       </c>
       <c r="D2">
-        <v>10.28585184643436</v>
+        <v>7.199093178391516</v>
       </c>
       <c r="E2">
-        <v>9.909514362515983</v>
+        <v>29.43859109164412</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.088835709006672</v>
+        <v>20.50170773498105</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.298653318905218</v>
       </c>
       <c r="I2">
-        <v>14.11018259777316</v>
+        <v>3.412397288101638</v>
       </c>
       <c r="J2">
-        <v>5.1321096757921</v>
+        <v>7.879182306154303</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.4393978746924</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.25896729577605</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.8657027894784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.85515853887812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.36493865787447</v>
+        <v>23.04179292449911</v>
       </c>
       <c r="C3">
-        <v>14.59943772148182</v>
+        <v>18.53546724528398</v>
       </c>
       <c r="D3">
-        <v>9.996772835034472</v>
+        <v>6.704392144821471</v>
       </c>
       <c r="E3">
-        <v>9.785427065627028</v>
+        <v>27.5681465922051</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.095742475753606</v>
+        <v>19.73033171779847</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.051717573404643</v>
       </c>
       <c r="I3">
-        <v>14.35702767499005</v>
+        <v>3.24371083943453</v>
       </c>
       <c r="J3">
-        <v>5.183718738806029</v>
+        <v>7.874320378182333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.72460204686136</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.40610598373685</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.71583116645744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.68341214497368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.46328608607784</v>
+        <v>22.00550695894854</v>
       </c>
       <c r="C4">
-        <v>13.91562779447044</v>
+        <v>17.78027930953437</v>
       </c>
       <c r="D4">
-        <v>9.822771623208235</v>
+        <v>6.383297236707866</v>
       </c>
       <c r="E4">
-        <v>9.715988259093541</v>
+        <v>26.35613101930377</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.100102625585639</v>
+        <v>19.26017701642652</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.894922359456098</v>
       </c>
       <c r="I4">
-        <v>14.52553194335495</v>
+        <v>3.13760048942854</v>
       </c>
       <c r="J4">
-        <v>5.217095353915707</v>
+        <v>7.875747354452932</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.90528708115238</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.86431683607613</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.64579385604867</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.58628051954985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.08333503834509</v>
+        <v>21.56827682398039</v>
       </c>
       <c r="C5">
-        <v>13.62753438485204</v>
+        <v>17.47725524667621</v>
       </c>
       <c r="D5">
-        <v>9.752815490173957</v>
+        <v>6.248041033443714</v>
       </c>
       <c r="E5">
-        <v>9.689362332290179</v>
+        <v>25.84605194023178</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.10191048347353</v>
+        <v>19.05172749958193</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.829587112062933</v>
       </c>
       <c r="I5">
-        <v>14.59820023822155</v>
+        <v>3.094085835812893</v>
       </c>
       <c r="J5">
-        <v>5.231117173042952</v>
+        <v>7.8744772635554</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.97551488383736</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.63919671519529</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.62256654264268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.54129366101006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.01948600786741</v>
+        <v>21.4945705641976</v>
       </c>
       <c r="C6">
-        <v>13.57912488620807</v>
+        <v>17.44259233680817</v>
       </c>
       <c r="D6">
-        <v>9.741258883732506</v>
+        <v>6.2252972979894</v>
       </c>
       <c r="E6">
-        <v>9.685041190770558</v>
+        <v>25.7601525352081</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.102212582428435</v>
+        <v>18.99520844834835</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.818518160705191</v>
       </c>
       <c r="I6">
-        <v>14.610501315052</v>
+        <v>3.087463052997939</v>
       </c>
       <c r="J6">
-        <v>5.233470780496542</v>
+        <v>7.870768263218274</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.98145663775209</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.60156115859459</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.61902407623732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.52484185189926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.4582127306337</v>
+        <v>21.99910744641853</v>
       </c>
       <c r="C7">
-        <v>13.91178075763886</v>
+        <v>17.81944903781717</v>
       </c>
       <c r="D7">
-        <v>9.82182422437603</v>
+        <v>6.381440375998173</v>
       </c>
       <c r="E7">
-        <v>9.715622444693567</v>
+        <v>26.34868915604093</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.100126879880577</v>
+        <v>19.19808504388075</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.893674410486122</v>
       </c>
       <c r="I7">
-        <v>14.52649609632845</v>
+        <v>3.138469798320997</v>
       </c>
       <c r="J7">
-        <v>5.217282759049908</v>
+        <v>7.866015065673704</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.89031395177184</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.8612980193391</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.64545938283511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.56091657008347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.28451372253793</v>
+        <v>24.0965296148869</v>
       </c>
       <c r="C8">
-        <v>15.2970666496786</v>
+        <v>19.36531695416779</v>
       </c>
       <c r="D8">
-        <v>10.18549468716311</v>
+        <v>7.03203363812823</v>
       </c>
       <c r="E8">
-        <v>9.865312738316371</v>
+        <v>28.80609469415118</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.091193035947279</v>
+        <v>20.16035372479664</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.214113107214187</v>
       </c>
       <c r="I8">
-        <v>14.1916160606735</v>
+        <v>3.356270340397395</v>
       </c>
       <c r="J8">
-        <v>5.149551476051459</v>
+        <v>7.863792044266664</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.51518975625944</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.96878269490234</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.80933888386336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.76204434469395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.47722224004293</v>
+        <v>27.7466993247498</v>
       </c>
       <c r="C9">
-        <v>17.7213090975081</v>
+        <v>22.05342802820452</v>
       </c>
       <c r="D9">
-        <v>10.92338600202177</v>
+        <v>8.171699927363353</v>
       </c>
       <c r="E9">
-        <v>10.21348020898227</v>
+        <v>33.12281163103529</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.074570349112159</v>
+        <v>22.1646910207218</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.803162364606491</v>
       </c>
       <c r="I9">
-        <v>13.6821916978211</v>
+        <v>3.762409323427833</v>
       </c>
       <c r="J9">
-        <v>5.030336205599795</v>
+        <v>7.913922960579132</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>9.855219184560688</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.98917342720272</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.31406092888983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.2678403584701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.59168411035025</v>
+        <v>30.14476511726393</v>
       </c>
       <c r="C10">
-        <v>19.32899723585543</v>
+        <v>23.84340614510647</v>
       </c>
       <c r="D10">
-        <v>11.47700511678386</v>
+        <v>8.926992553266862</v>
       </c>
       <c r="E10">
-        <v>10.50389686393283</v>
+        <v>35.11322373152312</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.06282835188183</v>
+        <v>23.35569405858206</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.176274814386164</v>
       </c>
       <c r="I10">
-        <v>13.41739759708669</v>
+        <v>4.044407338369821</v>
       </c>
       <c r="J10">
-        <v>4.951383046156399</v>
+        <v>7.926589150516785</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>9.345854313953922</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.42637126561096</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.8078548460858</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.55804155406939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.50473805496134</v>
+        <v>31.14713699255525</v>
       </c>
       <c r="C11">
-        <v>20.02384251557322</v>
+        <v>24.39088642531612</v>
       </c>
       <c r="D11">
-        <v>11.73075045878852</v>
+        <v>9.245739052612393</v>
       </c>
       <c r="E11">
-        <v>10.64379157137962</v>
+        <v>28.51461899983889</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.057570441517854</v>
+        <v>21.62139657321647</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.530789088158435</v>
       </c>
       <c r="I11">
-        <v>13.325574246402</v>
+        <v>4.121008573088075</v>
       </c>
       <c r="J11">
-        <v>4.917432995858895</v>
+        <v>7.53121170805684</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>8.701268209177817</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.13131555816195</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.06131939264208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.67827454594439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.84358276259234</v>
+        <v>31.50907979528153</v>
       </c>
       <c r="C12">
-        <v>20.28181107652397</v>
+        <v>24.43882932825564</v>
       </c>
       <c r="D12">
-        <v>11.82707236714298</v>
+        <v>9.361305616040532</v>
       </c>
       <c r="E12">
-        <v>10.69790609021477</v>
+        <v>22.57500797775494</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.055589763717317</v>
+        <v>19.95677576248013</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.332457174128916</v>
       </c>
       <c r="I12">
-        <v>13.29536502873651</v>
+        <v>4.130451366445715</v>
       </c>
       <c r="J12">
-        <v>4.904869151628236</v>
+        <v>7.205214438664166</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8.33353037243254</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.39315624169913</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.16160394120491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.89614194927181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.7709119155956</v>
+        <v>31.41224679646925</v>
       </c>
       <c r="C13">
-        <v>20.22648060106008</v>
+        <v>24.15923770952323</v>
       </c>
       <c r="D13">
-        <v>11.80631781990435</v>
+        <v>9.331215562891282</v>
       </c>
       <c r="E13">
-        <v>10.6862005428311</v>
+        <v>16.67823833555319</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.056015904189958</v>
+        <v>18.11899328435647</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.349127118048868</v>
       </c>
       <c r="I13">
-        <v>13.30166080362591</v>
+        <v>4.091252253553996</v>
       </c>
       <c r="J13">
-        <v>4.907561832284951</v>
+        <v>6.898342610367152</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>8.141711788052691</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.33698961366618</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.13981208651185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.09782169018673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.53275281404557</v>
+        <v>31.1359474766437</v>
       </c>
       <c r="C14">
-        <v>20.04516848146167</v>
+        <v>23.82261493797208</v>
       </c>
       <c r="D14">
-        <v>11.73867041556852</v>
+        <v>9.244059860639336</v>
       </c>
       <c r="E14">
-        <v>10.64822064750502</v>
+        <v>12.64173336562908</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.057407291866488</v>
+        <v>16.71981560004936</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.146371804690241</v>
       </c>
       <c r="I14">
-        <v>13.32299482277886</v>
+        <v>4.043188512378928</v>
       </c>
       <c r="J14">
-        <v>4.916393442727963</v>
+        <v>6.692088834500705</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>8.096589043252797</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.15295909336589</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.06948275696995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.52632120790674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.38597717055199</v>
+        <v>30.96896006589226</v>
       </c>
       <c r="C15">
-        <v>19.9334412385957</v>
+        <v>23.6822588062132</v>
       </c>
       <c r="D15">
-        <v>11.69726392728122</v>
+        <v>9.191311761760426</v>
       </c>
       <c r="E15">
-        <v>10.62510588145922</v>
+        <v>11.67684637272116</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.058260857484584</v>
+        <v>16.32184915653358</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.330048788495863</v>
       </c>
       <c r="I15">
-        <v>13.33667040263139</v>
+        <v>4.021201645664808</v>
       </c>
       <c r="J15">
-        <v>4.921841434005032</v>
+        <v>6.643944813265998</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>8.115306980981513</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.03957315642337</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.02696889324533</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.37795492603094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.53104082128384</v>
+        <v>30.00655762399137</v>
       </c>
       <c r="C16">
-        <v>19.28286092353124</v>
+        <v>23.0095939789449</v>
       </c>
       <c r="D16">
-        <v>11.46045691013207</v>
+        <v>8.887231751613387</v>
       </c>
       <c r="E16">
-        <v>10.49491272539095</v>
+        <v>11.56181223433492</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.063173513578208</v>
+        <v>16.03288487938945</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.05283158505004</v>
       </c>
       <c r="I16">
-        <v>13.42401195887794</v>
+        <v>3.910954526445632</v>
       </c>
       <c r="J16">
-        <v>4.953642112302738</v>
+        <v>6.696122810904158</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8.37696029279803</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.37958133750884</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.7918841678424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.38496410219417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.99413734612112</v>
+        <v>29.40515924036788</v>
       </c>
       <c r="C17">
-        <v>18.8744677606096</v>
+        <v>22.67156418186818</v>
       </c>
       <c r="D17">
-        <v>11.31563905241862</v>
+        <v>8.697410388506636</v>
       </c>
       <c r="E17">
-        <v>10.41705080714902</v>
+        <v>13.64835696899383</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.066207553306964</v>
+        <v>16.58855190571189</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.365906781533787</v>
       </c>
       <c r="I17">
-        <v>13.48523338943898</v>
+        <v>3.851414353785059</v>
       </c>
       <c r="J17">
-        <v>4.97366075342699</v>
+        <v>6.84465420726282</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>8.593905545018519</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.97934420987363</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.65516703682411</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.69673726844457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.6807219029745</v>
+        <v>29.06172319887739</v>
       </c>
       <c r="C18">
-        <v>18.63612926479364</v>
+        <v>22.56457423708166</v>
       </c>
       <c r="D18">
-        <v>11.23252431825435</v>
+        <v>8.588601961951161</v>
       </c>
       <c r="E18">
-        <v>10.37299798275761</v>
+        <v>18.18242022179659</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.06796062615915</v>
+        <v>17.96492473465464</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.337239444533346</v>
       </c>
       <c r="I18">
-        <v>13.5231127716035</v>
+        <v>3.829551355395636</v>
       </c>
       <c r="J18">
-        <v>4.985359356278531</v>
+        <v>7.099754332212573</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>8.831182502299715</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.77337334952404</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.5792363860526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.32059660313911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.57381098431959</v>
+        <v>28.95768314412724</v>
       </c>
       <c r="C19">
-        <v>18.55483807422483</v>
+        <v>22.72300887428562</v>
       </c>
       <c r="D19">
-        <v>11.20441550140504</v>
+        <v>8.554823465461931</v>
       </c>
       <c r="E19">
-        <v>10.3582074571742</v>
+        <v>24.43803855668037</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.068555603657711</v>
+        <v>19.78389418524791</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.368072202921564</v>
       </c>
       <c r="I19">
-        <v>13.5363829963218</v>
+        <v>3.849656759641879</v>
       </c>
       <c r="J19">
-        <v>4.989351705504737</v>
+        <v>7.409287476021007</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>9.089997640263872</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.70327349898691</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.55398731110622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.11065328249204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.05176721583084</v>
+        <v>29.53240470330088</v>
       </c>
       <c r="C20">
-        <v>18.91829743206867</v>
+        <v>23.48980361802031</v>
       </c>
       <c r="D20">
-        <v>11.33103678167024</v>
+        <v>8.733849645885213</v>
       </c>
       <c r="E20">
-        <v>10.42526351311338</v>
+        <v>34.56139792474882</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.065883760810528</v>
+        <v>22.87637759850681</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.07629877113084</v>
       </c>
       <c r="I20">
-        <v>13.47843717371221</v>
+        <v>3.976541934424252</v>
       </c>
       <c r="J20">
-        <v>4.971510584255276</v>
+        <v>7.890169278214112</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>9.423363000196636</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.01729260662803</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.66943964514188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.40265155232903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.60289249728681</v>
+        <v>31.29068853197456</v>
       </c>
       <c r="C21">
-        <v>20.09856334923879</v>
+        <v>24.8334022878789</v>
       </c>
       <c r="D21">
-        <v>11.75853400480593</v>
+        <v>9.289778582323747</v>
       </c>
       <c r="E21">
-        <v>10.65934516980301</v>
+        <v>37.36166439951958</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.05699833969138</v>
+        <v>24.22637665782398</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.414159666635585</v>
       </c>
       <c r="I21">
-        <v>13.31660098638621</v>
+        <v>4.198919748018034</v>
       </c>
       <c r="J21">
-        <v>4.913791368259383</v>
+        <v>7.985539484700888</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>9.129550949147527</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.20715107599612</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.090022197092</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.83358362709103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.57642851484844</v>
+        <v>32.38859559289435</v>
       </c>
       <c r="C22">
-        <v>20.83994057804992</v>
+        <v>25.6231917070257</v>
       </c>
       <c r="D22">
-        <v>12.03928218017067</v>
+        <v>9.63857605686924</v>
       </c>
       <c r="E22">
-        <v>10.81898339058365</v>
+        <v>38.68431628043469</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.051250830642987</v>
+        <v>25.03258558974845</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.612295513967233</v>
       </c>
       <c r="I22">
-        <v>13.23765200222652</v>
+        <v>4.337075918179288</v>
       </c>
       <c r="J22">
-        <v>4.87777779046359</v>
+        <v>8.042359078943562</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>8.943856000015764</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.95989344927911</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.39004593555439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.09343968676902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.06047480194042</v>
+        <v>31.80761391330469</v>
       </c>
       <c r="C23">
-        <v>20.446965337988</v>
+        <v>25.16644222520282</v>
       </c>
       <c r="D23">
-        <v>11.88932779728384</v>
+        <v>9.453763465643208</v>
       </c>
       <c r="E23">
-        <v>10.73316558798313</v>
+        <v>37.98381179585328</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.054313508873763</v>
+        <v>24.65753862085013</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.507183335194951</v>
       </c>
       <c r="I23">
-        <v>13.2771796371524</v>
+        <v>4.261230091953639</v>
       </c>
       <c r="J23">
-        <v>4.896838973032837</v>
+        <v>8.022461350728753</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>9.062624205377887</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.5608246829869</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.22756680041813</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.9799709790869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.02572753190392</v>
+        <v>29.50633732531491</v>
       </c>
       <c r="C24">
-        <v>18.89849309535595</v>
+        <v>23.43229570695463</v>
       </c>
       <c r="D24">
-        <v>11.32407501979242</v>
+        <v>8.725327806118479</v>
       </c>
       <c r="E24">
-        <v>10.42154833555206</v>
+        <v>35.22160822511123</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.066030119981171</v>
+        <v>23.14897027743812</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.101440538702521</v>
       </c>
       <c r="I24">
-        <v>13.48150142119983</v>
+        <v>3.974119999913973</v>
       </c>
       <c r="J24">
-        <v>4.97248208582185</v>
+        <v>7.941562354600196</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>9.496589129461677</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.00014300825771</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.66297869487311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.52766870828191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.65454779681888</v>
+        <v>26.80782343190064</v>
       </c>
       <c r="C25">
-        <v>17.0963006338698</v>
+        <v>21.42216146952551</v>
       </c>
       <c r="D25">
-        <v>10.7215139801217</v>
+        <v>7.877678088338154</v>
       </c>
       <c r="E25">
-        <v>10.11330076504215</v>
+        <v>32.00775635975852</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.078978737217086</v>
+        <v>21.52671892297617</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.647353896032107</v>
       </c>
       <c r="I25">
-        <v>13.80231818242936</v>
+        <v>3.657287979067202</v>
       </c>
       <c r="J25">
-        <v>5.061098701237015</v>
+        <v>7.878816233000105</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>9.998573494858467</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.45970338235832</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.1566819454335</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.08092745105786</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.63405972141174</v>
+        <v>24.61846600266014</v>
       </c>
       <c r="C2">
-        <v>19.70981590978326</v>
+        <v>19.92294836245861</v>
       </c>
       <c r="D2">
-        <v>7.199093178391516</v>
+        <v>7.195068858163046</v>
       </c>
       <c r="E2">
-        <v>29.43859109164412</v>
+        <v>29.39576369964665</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20.50170773498105</v>
+        <v>19.57720586272518</v>
       </c>
       <c r="H2">
-        <v>3.298653318905218</v>
+        <v>3.272472823626372</v>
       </c>
       <c r="I2">
-        <v>3.412397288101638</v>
+        <v>3.383905029257722</v>
       </c>
       <c r="J2">
-        <v>7.879182306154303</v>
+        <v>8.524994440826589</v>
       </c>
       <c r="K2">
-        <v>10.4393978746924</v>
+        <v>10.37667724657465</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.967115412444725</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.375755684450595</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.85515853887812</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.76144353544046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.04179292449911</v>
+        <v>23.03620466655608</v>
       </c>
       <c r="C3">
-        <v>18.53546724528398</v>
+        <v>18.65335134188587</v>
       </c>
       <c r="D3">
-        <v>6.704392144821471</v>
+        <v>6.701718116965948</v>
       </c>
       <c r="E3">
-        <v>27.5681465922051</v>
+        <v>27.53704509004866</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>19.73033171779847</v>
+        <v>18.8679968563615</v>
       </c>
       <c r="H3">
-        <v>3.051717573404643</v>
+        <v>3.03300119522583</v>
       </c>
       <c r="I3">
-        <v>3.24371083943453</v>
+        <v>3.234166225660104</v>
       </c>
       <c r="J3">
-        <v>7.874320378182333</v>
+        <v>8.504757600688334</v>
       </c>
       <c r="K3">
-        <v>10.72460204686136</v>
+        <v>10.66100711743513</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.19612589552061</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.602610923841168</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.68341214497368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.6265293053626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.00550695894854</v>
+        <v>22.00635985672026</v>
       </c>
       <c r="C4">
-        <v>17.78027930953437</v>
+        <v>17.83572510849185</v>
       </c>
       <c r="D4">
-        <v>6.383297236707866</v>
+        <v>6.381388944297098</v>
       </c>
       <c r="E4">
-        <v>26.35613101930377</v>
+        <v>26.3324989066701</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>19.26017701642652</v>
+        <v>18.43732845362437</v>
       </c>
       <c r="H4">
-        <v>2.894922359456098</v>
+        <v>2.880876010142729</v>
       </c>
       <c r="I4">
-        <v>3.13760048942854</v>
+        <v>3.140092101266257</v>
       </c>
       <c r="J4">
-        <v>7.875747354452932</v>
+        <v>8.4939170370469</v>
       </c>
       <c r="K4">
-        <v>10.90528708115238</v>
+        <v>10.83955396511133</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.34277210636857</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.765854935287171</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.58628051954985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.55018744014628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.56827682398039</v>
+        <v>21.57184559061981</v>
       </c>
       <c r="C5">
-        <v>17.47725524667621</v>
+        <v>17.5059485769965</v>
       </c>
       <c r="D5">
-        <v>6.248041033443714</v>
+        <v>6.246430768793672</v>
       </c>
       <c r="E5">
-        <v>25.84605194023178</v>
+        <v>25.82555036637145</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>19.05172749958193</v>
+        <v>18.24547926746611</v>
       </c>
       <c r="H5">
-        <v>2.829587112062933</v>
+        <v>2.81747143166907</v>
       </c>
       <c r="I5">
-        <v>3.094085835812893</v>
+        <v>3.101827919419633</v>
       </c>
       <c r="J5">
-        <v>7.8744772635554</v>
+        <v>8.487185900039643</v>
       </c>
       <c r="K5">
-        <v>10.97551488383736</v>
+        <v>10.90884948076335</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.39947422145974</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.836294308780133</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.54129366101006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.51351843654456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.4945705641976</v>
+        <v>21.49859838520551</v>
       </c>
       <c r="C6">
-        <v>17.44259233680817</v>
+        <v>17.46638914704035</v>
       </c>
       <c r="D6">
-        <v>6.2252972979894</v>
+        <v>6.223736307111735</v>
       </c>
       <c r="E6">
-        <v>25.7601525352081</v>
+        <v>25.74018462405424</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>18.99520844834835</v>
+        <v>18.1920571312376</v>
       </c>
       <c r="H6">
-        <v>2.818518160705191</v>
+        <v>2.806729224304292</v>
       </c>
       <c r="I6">
-        <v>3.087463052997939</v>
+        <v>3.096415642769105</v>
       </c>
       <c r="J6">
-        <v>7.870768263218274</v>
+        <v>8.482796753040185</v>
       </c>
       <c r="K6">
-        <v>10.98145663775209</v>
+        <v>10.91499382399772</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.40341707117358</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.846271135231603</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.52484185189926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.49880796427204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.99910744641853</v>
+        <v>21.99972428553633</v>
       </c>
       <c r="C7">
-        <v>17.81944903781717</v>
+        <v>17.86665152838284</v>
       </c>
       <c r="D7">
-        <v>6.381440375998173</v>
+        <v>6.379486662374291</v>
       </c>
       <c r="E7">
-        <v>26.34868915604093</v>
+        <v>26.32448886287396</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>19.19808504388075</v>
+        <v>18.47040987146755</v>
       </c>
       <c r="H7">
-        <v>2.893674410486122</v>
+        <v>2.879289220425733</v>
       </c>
       <c r="I7">
-        <v>3.138469798320997</v>
+        <v>3.141365403466531</v>
       </c>
       <c r="J7">
-        <v>7.866015065673704</v>
+        <v>8.442191276509355</v>
       </c>
       <c r="K7">
-        <v>10.89031395177184</v>
+        <v>10.82068799660996</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.32373166351933</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.758358101574631</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.56091657008347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.5121902468054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.0965296148869</v>
+        <v>24.08350283085953</v>
       </c>
       <c r="C8">
-        <v>19.36531695416779</v>
+        <v>19.524063386547</v>
       </c>
       <c r="D8">
-        <v>7.03203363812823</v>
+        <v>7.028316810881077</v>
       </c>
       <c r="E8">
-        <v>28.80609469415118</v>
+        <v>28.76538485067298</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20.16035372479664</v>
+        <v>19.55768928153044</v>
       </c>
       <c r="H8">
-        <v>3.214113107214187</v>
+        <v>3.189341287996317</v>
       </c>
       <c r="I8">
-        <v>3.356270340397395</v>
+        <v>3.333679798090093</v>
       </c>
       <c r="J8">
-        <v>7.863792044266664</v>
+        <v>8.366437396418402</v>
       </c>
       <c r="K8">
-        <v>10.51518975625944</v>
+        <v>10.4380465481251</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.01312025431024</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.426405162294238</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.76204434469395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.63775093150441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.7466993247498</v>
+        <v>27.70970526639169</v>
       </c>
       <c r="C9">
-        <v>22.05342802820452</v>
+        <v>22.42617016737033</v>
       </c>
       <c r="D9">
-        <v>8.171699927363353</v>
+        <v>8.164132890807226</v>
       </c>
       <c r="E9">
-        <v>33.12281163103529</v>
+        <v>33.05361055113902</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.1646910207218</v>
+        <v>21.4674762908303</v>
       </c>
       <c r="H9">
-        <v>3.803162364606491</v>
+        <v>3.759961982304281</v>
       </c>
       <c r="I9">
-        <v>3.762409323427833</v>
+        <v>3.693447218760886</v>
       </c>
       <c r="J9">
-        <v>7.913922960579132</v>
+        <v>8.399610312008882</v>
       </c>
       <c r="K9">
-        <v>9.855219184560688</v>
+        <v>9.763698918534343</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.492834387184176</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.010672607330896</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.2678403584701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.03041645467338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.14476511726393</v>
+        <v>30.08986502689207</v>
       </c>
       <c r="C10">
-        <v>23.84340614510647</v>
+        <v>24.30910515255375</v>
       </c>
       <c r="D10">
-        <v>8.926992553266862</v>
+        <v>8.915883984654151</v>
       </c>
       <c r="E10">
-        <v>35.11322373152312</v>
+        <v>35.02104145432533</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.35569405858206</v>
+        <v>23.07198873687033</v>
       </c>
       <c r="H10">
-        <v>4.176274814386164</v>
+        <v>4.118530466174617</v>
       </c>
       <c r="I10">
-        <v>4.044407338369821</v>
+        <v>3.941933393806144</v>
       </c>
       <c r="J10">
-        <v>7.926589150516785</v>
+        <v>8.157980975709066</v>
       </c>
       <c r="K10">
-        <v>9.345854313953922</v>
+        <v>9.217046274854889</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.098393362301598</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.781288597841119</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.55804155406939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.1679419640359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.14713699255525</v>
+        <v>31.08591577703359</v>
       </c>
       <c r="C11">
-        <v>24.39088642531612</v>
+        <v>24.7231563762373</v>
       </c>
       <c r="D11">
-        <v>9.245739052612393</v>
+        <v>9.232909366469265</v>
       </c>
       <c r="E11">
-        <v>28.51461899983889</v>
+        <v>28.4071867030498</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>21.62139657321647</v>
+        <v>22.45920305791905</v>
       </c>
       <c r="H11">
-        <v>4.530789088158435</v>
+        <v>4.474252133058712</v>
       </c>
       <c r="I11">
-        <v>4.121008573088075</v>
+        <v>4.007403349464118</v>
       </c>
       <c r="J11">
-        <v>7.53121170805684</v>
+        <v>7.384092330023935</v>
       </c>
       <c r="K11">
-        <v>8.701268209177817</v>
+        <v>8.635212317521439</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.756855803478086</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.26866039794552</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.67827454594439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.19417378297275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.50907979528153</v>
+        <v>31.44656956250306</v>
       </c>
       <c r="C12">
-        <v>24.43882932825564</v>
+        <v>24.65883243835761</v>
       </c>
       <c r="D12">
-        <v>9.361305616040532</v>
+        <v>9.347952962904872</v>
       </c>
       <c r="E12">
-        <v>22.57500797775494</v>
+        <v>22.45520885332948</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>19.95677576248013</v>
+        <v>21.3809732925644</v>
       </c>
       <c r="H12">
-        <v>5.332457174128916</v>
+        <v>5.285248497411447</v>
       </c>
       <c r="I12">
-        <v>4.130451366445715</v>
+        <v>4.01363887756235</v>
       </c>
       <c r="J12">
-        <v>7.205214438664166</v>
+        <v>6.97603402102586</v>
       </c>
       <c r="K12">
-        <v>8.33353037243254</v>
+        <v>8.347687480502785</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.615927456176045</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.939357339296137</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.89614194927181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.4133755074483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.41224679646925</v>
+        <v>31.35257547609213</v>
       </c>
       <c r="C13">
-        <v>24.15923770952323</v>
+        <v>24.28507435924572</v>
       </c>
       <c r="D13">
-        <v>9.331215562891282</v>
+        <v>9.31837759846891</v>
       </c>
       <c r="E13">
-        <v>16.67823833555319</v>
+        <v>16.54432904437282</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>18.11899328435647</v>
+        <v>19.56305904826577</v>
       </c>
       <c r="H13">
-        <v>6.349127118048868</v>
+        <v>6.312593461114679</v>
       </c>
       <c r="I13">
-        <v>4.091252253553996</v>
+        <v>3.979138734944732</v>
       </c>
       <c r="J13">
-        <v>6.898342610367152</v>
+        <v>6.831682563444252</v>
       </c>
       <c r="K13">
-        <v>8.141711788052691</v>
+        <v>8.244197609572559</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.57638825183618</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.743990511450864</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.09782169018673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.72201338666319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.1359474766437</v>
+        <v>31.08002025208651</v>
       </c>
       <c r="C14">
-        <v>23.82261493797208</v>
+        <v>23.88860352405354</v>
       </c>
       <c r="D14">
-        <v>9.244059860639336</v>
+        <v>9.232025259436742</v>
       </c>
       <c r="E14">
-        <v>12.64173336562908</v>
+        <v>12.49198738976492</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>16.71981560004936</v>
+        <v>17.92667708563908</v>
       </c>
       <c r="H14">
-        <v>7.146371804690241</v>
+        <v>7.116601648653027</v>
       </c>
       <c r="I14">
-        <v>4.043188512378928</v>
+        <v>3.938081158239525</v>
       </c>
       <c r="J14">
-        <v>6.692088834500705</v>
+        <v>6.823835944320431</v>
       </c>
       <c r="K14">
-        <v>8.096589043252797</v>
+        <v>8.251003613290314</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.584093247925811</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.68346238322055</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.52632120790674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.2698252519138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.96896006589226</v>
+        <v>30.91484768355926</v>
       </c>
       <c r="C15">
-        <v>23.6822588062132</v>
+        <v>23.73590854193424</v>
       </c>
       <c r="D15">
-        <v>9.191311761760426</v>
+        <v>9.179686519076288</v>
       </c>
       <c r="E15">
-        <v>11.67684637272116</v>
+        <v>11.52358428137125</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>16.32184915653358</v>
+        <v>17.36298819544777</v>
       </c>
       <c r="H15">
-        <v>7.330048788495863</v>
+        <v>7.302140767870534</v>
       </c>
       <c r="I15">
-        <v>4.021201645664808</v>
+        <v>3.919953844121046</v>
       </c>
       <c r="J15">
-        <v>6.643944813265998</v>
+        <v>6.859989367104219</v>
       </c>
       <c r="K15">
-        <v>8.115306980981513</v>
+        <v>8.280091367096423</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.596827217436891</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.694361280134504</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.37795492603094</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.16921241125837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.00655762399137</v>
+        <v>29.96107765793727</v>
       </c>
       <c r="C16">
-        <v>23.0095939789449</v>
+        <v>23.0837372966548</v>
       </c>
       <c r="D16">
-        <v>8.887231751613387</v>
+        <v>8.877570904359409</v>
       </c>
       <c r="E16">
-        <v>11.56181223433492</v>
+        <v>11.42919296165038</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>16.03288487938945</v>
+        <v>16.17845310718415</v>
       </c>
       <c r="H16">
-        <v>7.05283158505004</v>
+        <v>7.028800855078781</v>
       </c>
       <c r="I16">
-        <v>3.910954526445632</v>
+        <v>3.826788768034634</v>
       </c>
       <c r="J16">
-        <v>6.696122810904158</v>
+        <v>7.230911349493575</v>
       </c>
       <c r="K16">
-        <v>8.37696029279803</v>
+        <v>8.532286976189624</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.703961558825592</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.916758220665586</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.38496410219417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.32658382158736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.40515924036788</v>
+        <v>29.36410761103219</v>
       </c>
       <c r="C17">
-        <v>22.67156418186818</v>
+        <v>22.78671996845684</v>
       </c>
       <c r="D17">
-        <v>8.697410388506636</v>
+        <v>8.688732856825759</v>
       </c>
       <c r="E17">
-        <v>13.64835696899383</v>
+        <v>13.53902336718023</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>16.58855190571189</v>
+        <v>16.30107822047824</v>
       </c>
       <c r="H17">
-        <v>6.365906781533787</v>
+        <v>6.341759417521827</v>
       </c>
       <c r="I17">
-        <v>3.851414353785059</v>
+        <v>3.776274452893354</v>
       </c>
       <c r="J17">
-        <v>6.84465420726282</v>
+        <v>7.50278760501375</v>
       </c>
       <c r="K17">
-        <v>8.593905545018519</v>
+        <v>8.72684589811605</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.800624442107303</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.099346010338756</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.69673726844457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.67439524292615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.06172319887739</v>
+        <v>29.0221371040908</v>
       </c>
       <c r="C18">
-        <v>22.56457423708166</v>
+        <v>22.75578839061362</v>
       </c>
       <c r="D18">
-        <v>8.588601961951161</v>
+        <v>8.580300202819263</v>
       </c>
       <c r="E18">
-        <v>18.18242022179659</v>
+        <v>18.0925798884101</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>17.96492473465464</v>
+        <v>17.42192622318564</v>
       </c>
       <c r="H18">
-        <v>5.337239444533346</v>
+        <v>5.308807734970468</v>
       </c>
       <c r="I18">
-        <v>3.829551355395636</v>
+        <v>3.756770953689829</v>
       </c>
       <c r="J18">
-        <v>7.099754332212573</v>
+        <v>7.781882404542041</v>
       </c>
       <c r="K18">
-        <v>8.831182502299715</v>
+        <v>8.924823593216004</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.918204449364612</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.292516092375372</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.32059660313911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.26797249852247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.95768314412724</v>
+        <v>28.91691577988352</v>
       </c>
       <c r="C19">
-        <v>22.72300887428562</v>
+        <v>23.01466637541374</v>
       </c>
       <c r="D19">
-        <v>8.554823465461931</v>
+        <v>8.54640249647796</v>
       </c>
       <c r="E19">
-        <v>24.43803855668037</v>
+        <v>24.3579075306167</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>19.78389418524791</v>
+        <v>19.07372546717656</v>
       </c>
       <c r="H19">
-        <v>4.368072202921564</v>
+        <v>4.330735958394296</v>
       </c>
       <c r="I19">
-        <v>3.849656759641879</v>
+        <v>3.775542756872202</v>
       </c>
       <c r="J19">
-        <v>7.409287476021007</v>
+        <v>8.060934448714681</v>
       </c>
       <c r="K19">
-        <v>9.089997640263872</v>
+        <v>9.125988606526688</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.05003363793355</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.49932058698103</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.11065328249204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.98905920778302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.53240470330088</v>
+        <v>29.48301278579062</v>
       </c>
       <c r="C20">
-        <v>23.48980361802031</v>
+        <v>23.94733891819374</v>
       </c>
       <c r="D20">
-        <v>8.733849645885213</v>
+        <v>8.723920175431989</v>
       </c>
       <c r="E20">
-        <v>34.56139792474882</v>
+        <v>34.47700142023765</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>22.87637759850681</v>
+        <v>22.20796874365937</v>
       </c>
       <c r="H20">
-        <v>4.07629877113084</v>
+        <v>4.023466588560932</v>
       </c>
       <c r="I20">
-        <v>3.976541934424252</v>
+        <v>3.887143179820641</v>
       </c>
       <c r="J20">
-        <v>7.890169278214112</v>
+        <v>8.337598239997039</v>
       </c>
       <c r="K20">
-        <v>9.423363000196636</v>
+        <v>9.331194455109394</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.18161788653218</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.802066975279116</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.40265155232903</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.10326052117951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.29068853197456</v>
+        <v>31.22316353691293</v>
       </c>
       <c r="C21">
-        <v>24.8334022878789</v>
+        <v>25.28274204031476</v>
       </c>
       <c r="D21">
-        <v>9.289778582323747</v>
+        <v>9.275807567820474</v>
       </c>
       <c r="E21">
-        <v>37.36166439951958</v>
+        <v>37.25111024587805</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>24.22637665782398</v>
+        <v>25.29385599798556</v>
       </c>
       <c r="H21">
-        <v>4.414159666635585</v>
+        <v>4.344309890443894</v>
       </c>
       <c r="I21">
-        <v>4.198919748018034</v>
+        <v>4.075529399218444</v>
       </c>
       <c r="J21">
-        <v>7.985539484700888</v>
+        <v>7.50595031983719</v>
       </c>
       <c r="K21">
-        <v>9.129550949147527</v>
+        <v>8.890307173253527</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.885912819218355</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.637731283584152</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.83358362709103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.15589501573879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.38859559289435</v>
+        <v>32.30942572841697</v>
       </c>
       <c r="C22">
-        <v>25.6231917070257</v>
+        <v>26.05487594935377</v>
       </c>
       <c r="D22">
-        <v>9.63857605686924</v>
+        <v>9.621822171999908</v>
       </c>
       <c r="E22">
-        <v>38.68431628043469</v>
+        <v>38.55691763496761</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.03258558974845</v>
+        <v>27.300905399011</v>
       </c>
       <c r="H22">
-        <v>4.612295513967233</v>
+        <v>4.531674927435796</v>
       </c>
       <c r="I22">
-        <v>4.337075918179288</v>
+        <v>4.191074063595243</v>
       </c>
       <c r="J22">
-        <v>8.042359078943562</v>
+        <v>6.966192529755387</v>
       </c>
       <c r="K22">
-        <v>8.943856000015764</v>
+        <v>8.597033146431972</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.70124773491445</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4.546063541039829</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.09343968676902</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.15500856962076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.80761391330469</v>
+        <v>31.73508556048973</v>
       </c>
       <c r="C23">
-        <v>25.16644222520282</v>
+        <v>25.62190668493093</v>
       </c>
       <c r="D23">
-        <v>9.453763465643208</v>
+        <v>9.438634765066613</v>
       </c>
       <c r="E23">
-        <v>37.98381179585328</v>
+        <v>37.86633828590713</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.65753862085013</v>
+        <v>26.08614288443569</v>
       </c>
       <c r="H23">
-        <v>4.507183335194951</v>
+        <v>4.432907119716806</v>
       </c>
       <c r="I23">
-        <v>4.261230091953639</v>
+        <v>4.126973889100489</v>
       </c>
       <c r="J23">
-        <v>8.022461350728753</v>
+        <v>7.343271443466573</v>
       </c>
       <c r="K23">
-        <v>9.062624205377887</v>
+        <v>8.782294158345644</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.812467968983739</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4.628430465915216</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.9799709790869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.21287619908893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.50633732531491</v>
+        <v>29.45681817787035</v>
       </c>
       <c r="C24">
-        <v>23.43229570695463</v>
+        <v>23.90199122793195</v>
       </c>
       <c r="D24">
-        <v>8.725327806118479</v>
+        <v>8.71539540294315</v>
       </c>
       <c r="E24">
-        <v>35.22160822511123</v>
+        <v>35.13733023792887</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.14897027743812</v>
+        <v>22.44879391898348</v>
       </c>
       <c r="H24">
-        <v>4.101440538702521</v>
+        <v>4.04845379399888</v>
       </c>
       <c r="I24">
-        <v>3.974119999913973</v>
+        <v>3.882775541127612</v>
       </c>
       <c r="J24">
-        <v>7.941562354600196</v>
+        <v>8.389044672183275</v>
       </c>
       <c r="K24">
-        <v>9.496589129461677</v>
+        <v>9.391457699465272</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.219330798427698</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.863137366811848</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.52766870828191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.22093039745801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.80782343190064</v>
+        <v>26.77754449487237</v>
       </c>
       <c r="C25">
-        <v>21.42216146952551</v>
+        <v>21.74678922168991</v>
       </c>
       <c r="D25">
-        <v>7.877678088338154</v>
+        <v>7.871306438196431</v>
       </c>
       <c r="E25">
-        <v>32.00775635975852</v>
+        <v>31.94693969463878</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>21.52671892297617</v>
+        <v>20.73588917164416</v>
       </c>
       <c r="H25">
-        <v>3.647353896032107</v>
+        <v>3.609575206654135</v>
       </c>
       <c r="I25">
-        <v>3.657287979067202</v>
+        <v>3.602750459899409</v>
       </c>
       <c r="J25">
-        <v>7.878816233000105</v>
+        <v>8.432869340740432</v>
       </c>
       <c r="K25">
-        <v>9.998573494858467</v>
+        <v>9.92370015458026</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.614908872380475</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.080684523516074</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.08092745105786</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.89648514856205</v>
       </c>
     </row>
   </sheetData>
